--- a/carbon_emission.xlsx
+++ b/carbon_emission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF0D23A-890E-4417-A663-85073606CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6937ECB-7A22-4BD8-B782-A5C307E691D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5F77FF0-BFDA-4848-B9E5-02B485B55CD5}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB07493-1AF8-412F-B99A-2EF225F643AF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,35 +1137,35 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>13563.16</v>
+        <v>11416.32</v>
       </c>
       <c r="D17">
-        <v>13645.74</v>
+        <v>11485.32</v>
       </c>
       <c r="E17">
-        <v>17339.41</v>
+        <v>1494.84</v>
       </c>
       <c r="F17">
-        <v>1857.16</v>
+        <v>15599.59</v>
       </c>
       <c r="G17">
-        <v>18989.169999999998</v>
+        <v>15983.48</v>
       </c>
       <c r="H17">
-        <v>18329.45</v>
+        <v>15428.18</v>
       </c>
       <c r="I17">
-        <v>19054.86</v>
+        <v>16038.77</v>
       </c>
       <c r="J17">
-        <v>19289.47</v>
+        <v>16236.24</v>
       </c>
       <c r="K17">
-        <v>19315.75</v>
+        <v>16258.36</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="0"/>
-        <v>141384.16999999998</v>
+        <v>119941.10000000002</v>
       </c>
     </row>
   </sheetData>
